--- a/Framework/data/login_data.xlsx
+++ b/Framework/data/login_data.xlsx
@@ -1,35 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\AutomationBITM06\Framework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF65BBC-34F4-4198-8478-C7F6B2BF4976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDF2886-83D2-46CC-BDA7-4B392E4DE85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11370" yWindow="2145" windowWidth="16215" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
   <si>
     <t>invalid_user1@gmail.com</t>
   </si>
   <si>
+    <t>Not login</t>
+  </si>
+  <si>
     <t>invalid_user2@gmail.com</t>
   </si>
   <si>
@@ -43,6 +53,9 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>Login Success</t>
   </si>
 </sst>
 </file>
@@ -85,12 +98,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -372,60 +385,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>1213123</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
         <v>1234569</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>123456</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>258741</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{AB014D08-D3FE-4D49-96F0-1D60EF4BC134}"/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
